--- a/biology/Médecine/Adolphe_Faucon/Adolphe_Faucon.xlsx
+++ b/biology/Médecine/Adolphe_Faucon/Adolphe_Faucon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolphe Constant François Faucon, né le 12 décembre 1841 à Thérouanne et mort le 15 octobre 1884 à Lille, est un médecin et chirurgien français.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de médecin, il entre à l'école de médecine militaire de Strasbourg en 1861[1]
-Reçu docteur en médecine en 1865, il devient chirurgien militaire puis enseigne à l'école de médecine d'Amiens où il devient collègue de Jules Verne à l'Académie de la ville (1875) puis à la faculté catholique de médecine de Lille (1877)[2].
-Il est l'auteur de nombreuses études sur les amputations, les cancers, les péritonites, l'obstétrique ou encore les traumatismes telles Leçons de clinique chirurgicale (1879)[2].
-Son fils, Ernest-Adolphe (1879-1940), deviendra aussi un éminent chirurgien[2].
-Jules Verne le mentionne dans sa nouvelle Une ville idéale[2].
-Il meurt d'une maladie foudroyante à Lille le 15 octobre 1884. Ses obsèques ont lieu à l'église Saint-Étienne le 18 octobre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de médecin, il entre à l'école de médecine militaire de Strasbourg en 1861
+Reçu docteur en médecine en 1865, il devient chirurgien militaire puis enseigne à l'école de médecine d'Amiens où il devient collègue de Jules Verne à l'Académie de la ville (1875) puis à la faculté catholique de médecine de Lille (1877).
+Il est l'auteur de nombreuses études sur les amputations, les cancers, les péritonites, l'obstétrique ou encore les traumatismes telles Leçons de clinique chirurgicale (1879).
+Son fils, Ernest-Adolphe (1879-1940), deviendra aussi un éminent chirurgien.
+Jules Verne le mentionne dans sa nouvelle Une ville idéale.
+Il meurt d'une maladie foudroyante à Lille le 15 octobre 1884. Ses obsèques ont lieu à l'église Saint-Étienne le 18 octobre.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (1871).</t>
         </is>
